--- a/data/trans_dic/P56$pareja-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.486583774674707</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3251299068609539</v>
+        <v>0.325129906860954</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1026907280575805</v>
@@ -685,7 +685,7 @@
         <v>0.1123090357639623</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1397734072828299</v>
+        <v>0.13977340728283</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2127075979287853</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.291125702168118</v>
+        <v>0.2836061340081885</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2738265368144162</v>
+        <v>0.2761577741367461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3581675996200055</v>
+        <v>0.358120416472571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2366071106275768</v>
+        <v>0.2386104290898911</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04903624209146568</v>
+        <v>0.05107377291568018</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09991898710759652</v>
+        <v>0.09976382469804679</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0607875373106779</v>
+        <v>0.06365653382260343</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1089067935203603</v>
+        <v>0.1038722277768547</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1465261038816477</v>
+        <v>0.1451233978530622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1612746201539792</v>
+        <v>0.1623699179083947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1641264783038131</v>
+        <v>0.1658843245418704</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1536846595812825</v>
+        <v>0.1521891533637403</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5672568758837373</v>
+        <v>0.5709901112172928</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5402096450100972</v>
+        <v>0.542429485217841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6165006292700964</v>
+        <v>0.6081593297395865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4143881962575273</v>
+        <v>0.41176695991898</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1902344318247347</v>
+        <v>0.1805980369922149</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2058114347034219</v>
+        <v>0.2115615493311685</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1858103237828954</v>
+        <v>0.1860630680473676</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1744743424190123</v>
+        <v>0.1746316949379088</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2892504416621777</v>
+        <v>0.2963929892464286</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2749358379682991</v>
+        <v>0.2821962074736989</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2857913338361854</v>
+        <v>0.2811466206907369</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2216439412818964</v>
+        <v>0.2198558803780591</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3537753075052076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3756352242194728</v>
+        <v>0.3756352242194729</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1350037777879773</v>
@@ -821,7 +821,7 @@
         <v>0.3215610252404635</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2011326414813956</v>
+        <v>0.2011326414813955</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2337489949917929</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3200603835975119</v>
+        <v>0.3194816142074628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09403674832005919</v>
+        <v>0.1014949032064659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2268981299053611</v>
+        <v>0.2297371459571757</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1533151665141215</v>
+        <v>0.142032572848847</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1266469973583208</v>
+        <v>0.1309670786711227</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06717807691547012</v>
+        <v>0.06715565468044925</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1431851042269719</v>
+        <v>0.1407479440139199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1825037856948418</v>
+        <v>0.1951758631189876</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.192243150892698</v>
+        <v>0.1971052380040718</v>
       </c>
     </row>
     <row r="9">
@@ -891,37 +891,37 @@
         <v>0.8018023032901184</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8896097277038035</v>
+        <v>0.8915617069462513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6300741373393014</v>
+        <v>0.6754146104355264</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5092051820073215</v>
+        <v>0.5317855035542122</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5993152906817273</v>
+        <v>0.5987067254785322</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3368479982139148</v>
+        <v>0.3455837674417261</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5702225463221489</v>
+        <v>0.5582216332032331</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2949224820823597</v>
+        <v>0.31370382019676</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5214838285139924</v>
+        <v>0.5305512084466243</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5477056995382662</v>
+        <v>0.5823884231771068</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5215352180026206</v>
+        <v>0.5429067966578834</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3546297637370917</v>
+        <v>0.3564282694333619</v>
       </c>
     </row>
     <row r="10">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3346033786696215</v>
+        <v>0.3699240161675146</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2245431966531589</v>
+        <v>0.1934714021387626</v>
       </c>
     </row>
     <row r="12">
@@ -1021,29 +1021,29 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9248100594455487</v>
+        <v>0.921099794405573</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1</v>
+        <v>0.7681181017957516</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.5037220604509719</v>
+        <v>0.4663602416934359</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8102827057374512</v>
+        <v>0.81700361930893</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8269617885208892</v>
+        <v>0.8010329743135767</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6204979459908805</v>
+        <v>0.6180380830986786</v>
       </c>
     </row>
     <row r="13">
@@ -1102,40 +1102,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2930074822451704</v>
+        <v>0.2924357837800934</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1012211393364896</v>
+        <v>0.1062209155075766</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0901263783773526</v>
+        <v>0.08909686377976114</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1227365195499371</v>
+        <v>0.1238443126946533</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1754650461036462</v>
+        <v>0.1767931335895175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1837767819076121</v>
+        <v>0.1847759374319234</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1785553846597539</v>
+        <v>0.1802810483556275</v>
       </c>
     </row>
     <row r="15">
@@ -1146,40 +1146,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4492802316426071</v>
+        <v>0.4380872618913968</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2002445809006964</v>
+        <v>0.2084872643702854</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2104396402769177</v>
+        <v>0.2090752228145472</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1869973788344999</v>
+        <v>0.187755840800937</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2839564344408879</v>
+        <v>0.2874254777579421</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3019095183625791</v>
+        <v>0.2997291478307761</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2461040863341125</v>
+        <v>0.2437940440969047</v>
       </c>
     </row>
     <row r="16">
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12849</v>
+        <v>12517</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18728</v>
+        <v>18887</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20304</v>
+        <v>20301</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17094</v>
+        <v>17239</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4090</v>
+        <v>4260</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18580</v>
+        <v>18551</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8676</v>
+        <v>9086</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23651</v>
+        <v>22558</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18690</v>
+        <v>18511</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>41019</v>
+        <v>41297</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32731</v>
+        <v>33081</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>44479</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="7">
@@ -1493,40 +1493,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25036</v>
+        <v>25201</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36947</v>
+        <v>37098</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34949</v>
+        <v>34476</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29939</v>
+        <v>29749</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15868</v>
+        <v>15065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38270</v>
+        <v>39340</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26521</v>
+        <v>26558</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37890</v>
+        <v>37925</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36894</v>
+        <v>37805</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>69928</v>
+        <v>71774</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>56993</v>
+        <v>56067</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>64148</v>
+        <v>63630</v>
       </c>
     </row>
     <row r="8">
@@ -1632,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1051</v>
+        <v>1135</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6488</v>
+        <v>6569</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1647,22 +1647,22 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3892</v>
+        <v>3605</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6087</v>
+        <v>6295</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>733</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2991</v>
+        <v>2940</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6673</v>
+        <v>7136</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14736</v>
+        <v>15109</v>
       </c>
     </row>
     <row r="11">
@@ -1676,37 +1676,37 @@
         <v>3324</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8119</v>
+        <v>8136</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7044</v>
+        <v>7551</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14560</v>
+        <v>15205</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4057</v>
+        <v>4053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>3962</v>
+        <v>4065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14475</v>
+        <v>14170</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14175</v>
+        <v>15077</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5691</v>
+        <v>5790</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>11441</v>
+        <v>12166</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19069</v>
+        <v>19851</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27184</v>
+        <v>27322</v>
       </c>
     </row>
     <row r="12">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2392</v>
+        <v>2644</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3439</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="15">
@@ -1850,29 +1850,29 @@
         <v>4227</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6611</v>
+        <v>6584</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>3361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4423</v>
+        <v>3397</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4114</v>
+        <v>3809</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>3361</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4383</v>
+        <v>4419</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6531</v>
+        <v>6327</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>9503</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="16">
@@ -1975,40 +1975,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31642</v>
+        <v>31580</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20460</v>
+        <v>21471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15483</v>
+        <v>15306</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>33556</v>
+        <v>33859</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>49243</v>
+        <v>49615</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>44820</v>
+        <v>45064</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>68099</v>
+        <v>68757</v>
       </c>
     </row>
     <row r="19">
@@ -2019,40 +2019,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48517</v>
+        <v>47309</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40476</v>
+        <v>42143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36151</v>
+        <v>35917</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>51125</v>
+        <v>51332</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>79690</v>
+        <v>80663</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>73631</v>
+        <v>73099</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>93861</v>
+        <v>92980</v>
       </c>
     </row>
     <row r="20">
